--- a/natmiOut/OldD7/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.93477760762204</v>
+        <v>0.01825266666666667</v>
       </c>
       <c r="H2">
-        <v>1.93477760762204</v>
+        <v>0.054758</v>
       </c>
       <c r="I2">
-        <v>0.9123187065555901</v>
+        <v>0.007933352766604292</v>
       </c>
       <c r="J2">
-        <v>0.9123187065555901</v>
+        <v>0.007933352766604292</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.173589811374518</v>
+        <v>0.1580456666666667</v>
       </c>
       <c r="N2">
-        <v>0.173589811374518</v>
+        <v>0.474137</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1016398517172922</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1016398517172922</v>
       </c>
       <c r="Q2">
-        <v>0.3358576799587512</v>
+        <v>0.002884754871777778</v>
       </c>
       <c r="R2">
-        <v>0.3358576799587512</v>
+        <v>0.025962793846</v>
       </c>
       <c r="S2">
-        <v>0.9123187065555901</v>
+        <v>0.0008063447988186299</v>
       </c>
       <c r="T2">
-        <v>0.9123187065555901</v>
+        <v>0.0008063447988186299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.0452965252310992</v>
+        <v>0.01825266666666667</v>
       </c>
       <c r="H3">
-        <v>0.0452965252310992</v>
+        <v>0.054758</v>
       </c>
       <c r="I3">
-        <v>0.02135897539205545</v>
+        <v>0.007933352766604292</v>
       </c>
       <c r="J3">
-        <v>0.02135897539205545</v>
+        <v>0.007933352766604292</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.173589811374518</v>
+        <v>1.049824666666667</v>
       </c>
       <c r="N3">
-        <v>0.173589811374518</v>
+        <v>3.149474</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6751467832028867</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6751467832028867</v>
       </c>
       <c r="Q3">
-        <v>0.007863015270787605</v>
+        <v>0.01916209969911111</v>
       </c>
       <c r="R3">
-        <v>0.007863015270787605</v>
+        <v>0.172458897292</v>
       </c>
       <c r="S3">
-        <v>0.02135897539205545</v>
+        <v>0.005356177600386609</v>
       </c>
       <c r="T3">
-        <v>0.02135897539205545</v>
+        <v>0.005356177600386609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.140651435656453</v>
+        <v>0.01825266666666667</v>
       </c>
       <c r="H4">
-        <v>0.140651435656453</v>
+        <v>0.054758</v>
       </c>
       <c r="I4">
-        <v>0.06632231805235426</v>
+        <v>0.007933352766604292</v>
       </c>
       <c r="J4">
-        <v>0.06632231805235426</v>
+        <v>0.007933352766604292</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.173589811374518</v>
+        <v>0.09420033333333333</v>
       </c>
       <c r="N4">
-        <v>0.173589811374518</v>
+        <v>0.282601</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.06058064174523078</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.06058064174523079</v>
       </c>
       <c r="Q4">
-        <v>0.02441565618515883</v>
+        <v>0.001719407284222222</v>
       </c>
       <c r="R4">
-        <v>0.02441565618515883</v>
+        <v>0.015474665558</v>
       </c>
       <c r="S4">
-        <v>0.06632231805235426</v>
+        <v>0.0004806076017921901</v>
       </c>
       <c r="T4">
-        <v>0.06632231805235426</v>
+        <v>0.0004806076017921902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.01825266666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.054758</v>
+      </c>
+      <c r="I5">
+        <v>0.007933352766604292</v>
+      </c>
+      <c r="J5">
+        <v>0.007933352766604292</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.252887</v>
+      </c>
+      <c r="N5">
+        <v>0.758661</v>
+      </c>
+      <c r="O5">
+        <v>0.1626327233345903</v>
+      </c>
+      <c r="P5">
+        <v>0.1626327233345903</v>
+      </c>
+      <c r="Q5">
+        <v>0.004615862115333334</v>
+      </c>
+      <c r="R5">
+        <v>0.041542759038</v>
+      </c>
+      <c r="S5">
+        <v>0.001290222765606862</v>
+      </c>
+      <c r="T5">
+        <v>0.001290222765606862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.977040333333333</v>
+      </c>
+      <c r="H6">
+        <v>5.931120999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.8593022972792067</v>
+      </c>
+      <c r="J6">
+        <v>0.8593022972792068</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1580456666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.474137</v>
+      </c>
+      <c r="O6">
+        <v>0.1016398517172922</v>
+      </c>
+      <c r="P6">
+        <v>0.1016398517172922</v>
+      </c>
+      <c r="Q6">
+        <v>0.3124626575085555</v>
+      </c>
+      <c r="R6">
+        <v>2.812163917577</v>
+      </c>
+      <c r="S6">
+        <v>0.0873393580757871</v>
+      </c>
+      <c r="T6">
+        <v>0.0873393580757871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.977040333333333</v>
+      </c>
+      <c r="H7">
+        <v>5.931120999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.8593022972792067</v>
+      </c>
+      <c r="J7">
+        <v>0.8593022972792068</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>1.049824666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.149474</v>
+      </c>
+      <c r="O7">
+        <v>0.6751467832028867</v>
+      </c>
+      <c r="P7">
+        <v>0.6751467832028867</v>
+      </c>
+      <c r="Q7">
+        <v>2.075545708928222</v>
+      </c>
+      <c r="R7">
+        <v>18.679911380354</v>
+      </c>
+      <c r="S7">
+        <v>0.5801551818069071</v>
+      </c>
+      <c r="T7">
+        <v>0.5801551818069072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.977040333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.931120999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.8593022972792067</v>
+      </c>
+      <c r="J8">
+        <v>0.8593022972792068</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.09420033333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.282601</v>
+      </c>
+      <c r="O8">
+        <v>0.06058064174523078</v>
+      </c>
+      <c r="P8">
+        <v>0.06058064174523079</v>
+      </c>
+      <c r="Q8">
+        <v>0.1862378584134444</v>
+      </c>
+      <c r="R8">
+        <v>1.676140725721</v>
+      </c>
+      <c r="S8">
+        <v>0.05205708462232542</v>
+      </c>
+      <c r="T8">
+        <v>0.05205708462232544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.977040333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.931120999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.8593022972792067</v>
+      </c>
+      <c r="J9">
+        <v>0.8593022972792068</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.252887</v>
+      </c>
+      <c r="N9">
+        <v>0.758661</v>
+      </c>
+      <c r="O9">
+        <v>0.1626327233345903</v>
+      </c>
+      <c r="P9">
+        <v>0.1626327233345903</v>
+      </c>
+      <c r="Q9">
+        <v>0.4999677987756667</v>
+      </c>
+      <c r="R9">
+        <v>4.499710188980999</v>
+      </c>
+      <c r="S9">
+        <v>0.139750672774187</v>
+      </c>
+      <c r="T9">
+        <v>0.1397506727741871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.048273</v>
+      </c>
+      <c r="H10">
+        <v>0.144819</v>
+      </c>
+      <c r="I10">
+        <v>0.02098141302288007</v>
+      </c>
+      <c r="J10">
+        <v>0.02098141302288007</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1580456666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.474137</v>
+      </c>
+      <c r="O10">
+        <v>0.1016398517172922</v>
+      </c>
+      <c r="P10">
+        <v>0.1016398517172922</v>
+      </c>
+      <c r="Q10">
+        <v>0.007629338467000001</v>
+      </c>
+      <c r="R10">
+        <v>0.068664046203</v>
+      </c>
+      <c r="S10">
+        <v>0.002132547708464794</v>
+      </c>
+      <c r="T10">
+        <v>0.002132547708464794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.048273</v>
+      </c>
+      <c r="H11">
+        <v>0.144819</v>
+      </c>
+      <c r="I11">
+        <v>0.02098141302288007</v>
+      </c>
+      <c r="J11">
+        <v>0.02098141302288007</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.049824666666667</v>
+      </c>
+      <c r="N11">
+        <v>3.149474</v>
+      </c>
+      <c r="O11">
+        <v>0.6751467832028867</v>
+      </c>
+      <c r="P11">
+        <v>0.6751467832028867</v>
+      </c>
+      <c r="Q11">
+        <v>0.050678186134</v>
+      </c>
+      <c r="R11">
+        <v>0.456103675206</v>
+      </c>
+      <c r="S11">
+        <v>0.01416553350944863</v>
+      </c>
+      <c r="T11">
+        <v>0.01416553350944864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.048273</v>
+      </c>
+      <c r="H12">
+        <v>0.144819</v>
+      </c>
+      <c r="I12">
+        <v>0.02098141302288007</v>
+      </c>
+      <c r="J12">
+        <v>0.02098141302288007</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.09420033333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.282601</v>
+      </c>
+      <c r="O12">
+        <v>0.06058064174523078</v>
+      </c>
+      <c r="P12">
+        <v>0.06058064174523079</v>
+      </c>
+      <c r="Q12">
+        <v>0.004547332691000001</v>
+      </c>
+      <c r="R12">
+        <v>0.040925994219</v>
+      </c>
+      <c r="S12">
+        <v>0.001271067465647817</v>
+      </c>
+      <c r="T12">
+        <v>0.001271067465647817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.048273</v>
+      </c>
+      <c r="H13">
+        <v>0.144819</v>
+      </c>
+      <c r="I13">
+        <v>0.02098141302288007</v>
+      </c>
+      <c r="J13">
+        <v>0.02098141302288007</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.252887</v>
+      </c>
+      <c r="N13">
+        <v>0.758661</v>
+      </c>
+      <c r="O13">
+        <v>0.1626327233345903</v>
+      </c>
+      <c r="P13">
+        <v>0.1626327233345903</v>
+      </c>
+      <c r="Q13">
+        <v>0.012207614151</v>
+      </c>
+      <c r="R13">
+        <v>0.109868527359</v>
+      </c>
+      <c r="S13">
+        <v>0.003412264339318823</v>
+      </c>
+      <c r="T13">
+        <v>0.003412264339318824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2571846666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.7715540000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1117829369313088</v>
+      </c>
+      <c r="J14">
+        <v>0.1117829369313088</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1580456666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.474137</v>
+      </c>
+      <c r="O14">
+        <v>0.1016398517172922</v>
+      </c>
+      <c r="P14">
+        <v>0.1016398517172922</v>
+      </c>
+      <c r="Q14">
+        <v>0.04064692209977778</v>
+      </c>
+      <c r="R14">
+        <v>0.365822298898</v>
+      </c>
+      <c r="S14">
+        <v>0.01136160113422165</v>
+      </c>
+      <c r="T14">
+        <v>0.01136160113422165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2571846666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.7715540000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1117829369313088</v>
+      </c>
+      <c r="J15">
+        <v>0.1117829369313088</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.049824666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.149474</v>
+      </c>
+      <c r="O15">
+        <v>0.6751467832028867</v>
+      </c>
+      <c r="P15">
+        <v>0.6751467832028867</v>
+      </c>
+      <c r="Q15">
+        <v>0.2699988069551111</v>
+      </c>
+      <c r="R15">
+        <v>2.429989262596</v>
+      </c>
+      <c r="S15">
+        <v>0.0754698902861443</v>
+      </c>
+      <c r="T15">
+        <v>0.07546989028614431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2571846666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.7715540000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1117829369313088</v>
+      </c>
+      <c r="J16">
+        <v>0.1117829369313088</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.09420033333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.282601</v>
+      </c>
+      <c r="O16">
+        <v>0.06058064174523078</v>
+      </c>
+      <c r="P16">
+        <v>0.06058064174523079</v>
+      </c>
+      <c r="Q16">
+        <v>0.02422688132822222</v>
+      </c>
+      <c r="R16">
+        <v>0.218041931954</v>
+      </c>
+      <c r="S16">
+        <v>0.006771882055465346</v>
+      </c>
+      <c r="T16">
+        <v>0.006771882055465347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2571846666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.7715540000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1117829369313088</v>
+      </c>
+      <c r="J17">
+        <v>0.1117829369313088</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.252887</v>
+      </c>
+      <c r="N17">
+        <v>0.758661</v>
+      </c>
+      <c r="O17">
+        <v>0.1626327233345903</v>
+      </c>
+      <c r="P17">
+        <v>0.1626327233345903</v>
+      </c>
+      <c r="Q17">
+        <v>0.06503865879933335</v>
+      </c>
+      <c r="R17">
+        <v>0.585347929194</v>
+      </c>
+      <c r="S17">
+        <v>0.0181795634554775</v>
+      </c>
+      <c r="T17">
+        <v>0.0181795634554775</v>
       </c>
     </row>
   </sheetData>
